--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C9A3DC-D29B-4268-8C47-9C7344D48E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350DE37-4F8E-4D65-B969-B28E44C1AE21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +47,6 @@
   </si>
   <si>
     <t>$English$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotFoundAccount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -67,15 +59,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ExitGame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임을 종료하시겠습니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardExpGold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,14 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LanguageChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나가기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NewGame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>New Game</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,6 +239,94 @@
   </si>
   <si>
     <t>Tutorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message_ExitGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message_LanguageChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message_NewAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message_NotFoundAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message_RewardExpGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_NewGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Retry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Tutorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_Slots</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +667,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -636,310 +696,310 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350DE37-4F8E-4D65-B969-B28E44C1AE21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ED2ECD-C721-41EE-BC29-12E1922FA868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,184 @@
   </si>
   <si>
     <t>Title_Slots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message_GetNewCharacter</t>
+  </si>
+  <si>
+    <t>메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 캐릭터 획득!
+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New character!
+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소서리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorceress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워리어 테스트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워리어 테스트3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워리어 테스트4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워리어 테스트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소서리스 테스트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소서리스 테스트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닌자 테스트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior test3</t>
+  </si>
+  <si>
+    <t>Warrior test4</t>
+  </si>
+  <si>
+    <t>Sorceress test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorceress test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ninja test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜렉션 스텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection_Stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}
+레벨 : {1}
+경험치 : {2}
+생명력 : {3}
+공격력 : {4}
+방어력 : {5}
+신호 주기 : {6}
+신호 속도 : {7}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}
+Level : {1}
+Exp : {2}
+HP : {3}
+Atk : {4}
+Def : {5}
+Sign period : {6}
+Sign speed : {7}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_40001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_40002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_40003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_40100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_40101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대검을 한 번 휘둘러 단일 대상에게 피해를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대검을 앞으로 길게 뻗어 휘두르며 단일 대상에게 피해를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대검을 아래에서 위로 휘둘러 단일 대상에게 추가 고정피해를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대검을 세 번 휘둘러 단일 대상에게 피해를 입힌다.
+세번째 공격은 모든 적에게 피해를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 대상에게 폭발을 일으켜 피해를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발하는 구체를 소환하여 모든 적에게 수차례의 피해를 입힌다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,13 +554,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -710,72 +891,72 @@
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -783,13 +964,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -797,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -811,13 +992,13 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -825,13 +1006,13 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -839,13 +1020,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -853,13 +1034,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -867,13 +1048,13 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -881,13 +1062,13 @@
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -895,13 +1076,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -909,13 +1090,13 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -923,13 +1104,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -937,13 +1118,13 @@
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -951,60 +1132,298 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20000</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20001</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="3">
+        <v>40000</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="3">
+        <v>40001</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="3">
+        <v>40002</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="3">
+        <v>40003</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="3">
+        <v>40100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="3">
+        <v>40101</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="3">
+        <v>40200</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D2" xr:uid="{DCEE4153-6D36-4D91-BAEC-2672325C070B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D24">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D27">
       <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ED2ECD-C721-41EE-BC29-12E1922FA868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DDCBBA-B7EB-4C06-AD56-2D82549F6304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="127">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,54 @@
   </si>
   <si>
     <t>폭발하는 구체를 소환하여 모든 적에게 수차례의 피해를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1419,6 +1467,62 @@
       </c>
       <c r="D41" s="1" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DDCBBA-B7EB-4C06-AD56-2D82549F6304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F051D4-7A6E-475A-ACBD-342D63DDE671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,6 +553,29 @@
   </si>
   <si>
     <t>이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Journey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Play</t>
+  </si>
+  <si>
+    <t>Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1523,6 +1546,34 @@
       </c>
       <c r="D45" s="1" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F051D4-7A6E-475A-ACBD-342D63DDE671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E804EE-49BD-4058-9E94-0BC24298FC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="137">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,6 +576,22 @@
   </si>
   <si>
     <t>입장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_Touch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경을 터치하여 뒤로가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch to back</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1574,6 +1590,20 @@
       </c>
       <c r="D47" s="1" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E804EE-49BD-4058-9E94-0BC24298FC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F12403-70E4-4460-AA5B-C6AB6644233C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="178">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -594,11 +594,179 @@
     <t>Touch to back</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>던전 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 특이사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Boss : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Note : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">특이사항 : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸늘하다...
+가슴에 비수가 날아와 꽂힌다...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_50001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_50002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 걱정하지 마라.
+손은 눈보다 빠르니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예림이 그 손패 봐봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_50001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_50002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test map 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test map 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 맵 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 맵 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 보스명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_50001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_50002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 보스 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 보스 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 보스 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test boss 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test boss 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test boss 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note_50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note_50001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note_50002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Develop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under development</t>
+  </si>
+  <si>
+    <t>개발중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -651,6 +819,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1604,6 +1775,213 @@
       </c>
       <c r="D48" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F12403-70E4-4460-AA5B-C6AB6644233C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B04C7C-5415-4416-A264-FFEC56402DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="188">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -757,6 +757,43 @@
   </si>
   <si>
     <t>개발중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_Unknown</t>
+  </si>
+  <si>
+    <t>Boss_Unknown</t>
+  </si>
+  <si>
+    <t>Note_Unknown</t>
+  </si>
+  <si>
+    <t>던전 특이사항(잠김)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 보스명(잠김)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 설명(잠김)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직은 무리야...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not yet!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1982,6 +2019,48 @@
       </c>
       <c r="D63" s="1" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B04C7C-5415-4416-A264-FFEC56402DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72794BD7-E925-4EEC-9ABB-FDF0E31D60C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="192">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,17 +430,6 @@
   </si>
   <si>
     <t>Collection_Stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}
-레벨 : {1}
-경험치 : {2}
-생명력 : {3}
-공격력 : {4}
-방어력 : {5}
-신호 주기 : {6}
-신호 속도 : {7}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -564,10 +553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탐험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Button_Play</t>
   </si>
   <si>
@@ -794,6 +779,36 @@
   </si>
   <si>
     <t>Unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}
+레벨 : {1}
+경험치 : {2}
+생명력 : {3}
+공격력 : {4}
+방어력 : {5}
+박동 주기 : {6}
+박동 속도 : {7}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message_Return</t>
+  </si>
+  <si>
+    <t>메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투에서 귀환하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you like to return from the battle?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1140,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1626,94 +1641,94 @@
         <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1721,13 +1736,13 @@
         <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1735,13 +1750,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1749,13 +1764,13 @@
         <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1763,13 +1778,13 @@
         <v>35</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1777,13 +1792,13 @@
         <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1791,105 +1806,105 @@
         <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>50</v>
@@ -1900,167 +1915,181 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72794BD7-E925-4EEC-9ABB-FDF0E31D60C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D49F069-FD25-4722-886C-1A7478605CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="196">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Description_40000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description_40001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,6 +805,26 @@
   </si>
   <si>
     <t>Would you like to return from the battle?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워리어 테스트0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior test0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_40004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 대상에게 강력한 미들킥을 찬다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_40000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1187,914 +1203,942 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>155</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="1">
-        <v>20000</v>
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="1">
-        <v>20001</v>
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="3">
-        <v>40000</v>
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="3">
-        <v>40001</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="3">
-        <v>40002</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="3">
-        <v>40003</v>
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="3">
-        <v>40100</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="3">
-        <v>40101</v>
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="3">
-        <v>40200</v>
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>43</v>
+      </c>
+      <c r="B43" s="3">
+        <v>40000</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>83</v>
+      </c>
+      <c r="B44" s="3">
+        <v>40001</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>83</v>
+      </c>
+      <c r="B45" s="3">
+        <v>40002</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>126</v>
+        <v>83</v>
+      </c>
+      <c r="B46" s="3">
+        <v>40003</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
+      </c>
+      <c r="B47" s="3">
+        <v>40004</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>83</v>
+      </c>
+      <c r="B48" s="3">
+        <v>40100</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>138</v>
+        <v>83</v>
+      </c>
+      <c r="B49" s="3">
+        <v>40101</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>139</v>
+        <v>83</v>
+      </c>
+      <c r="B50" s="3">
+        <v>40200</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>159</v>
+        <v>78</v>
+      </c>
+      <c r="B57" s="1">
+        <v>20000</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>160</v>
+        <v>78</v>
+      </c>
+      <c r="B58" s="1">
+        <v>20001</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B63" s="1" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>191</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D2" xr:uid="{DCEE4153-6D36-4D91-BAEC-2672325C070B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D27">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D68">
       <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D49F069-FD25-4722-886C-1A7478605CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42917791-D1F6-49D0-862F-1341ED73BE03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="214">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -825,6 +825,82 @@
   </si>
   <si>
     <t>Description_40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message_CharacterLevelUp</t>
+  </si>
+  <si>
+    <t>캐릭터 레벨업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_40001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_40002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_40003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_40004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_40100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_40101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_40200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message_SkillLevelUp</t>
+  </si>
+  <si>
+    <t>스킬 레벨업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 레벨 업!
+{0} -&gt; {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character Level Up!
+{0} -&gt; {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 레벨 업!
+{0}
+{1} -&gt; {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill Level Up!
+{0}
+{1} -&gt; {2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1171,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1765,8 +1841,8 @@
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3">
-        <v>40000</v>
+      <c r="B43" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>191</v>
@@ -1779,8 +1855,8 @@
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="3">
-        <v>40001</v>
+      <c r="B44" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>84</v>
@@ -1793,8 +1869,8 @@
       <c r="A45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="3">
-        <v>40002</v>
+      <c r="B45" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>87</v>
@@ -1807,8 +1883,8 @@
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="3">
-        <v>40003</v>
+      <c r="B46" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>85</v>
@@ -1821,8 +1897,8 @@
       <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="3">
-        <v>40004</v>
+      <c r="B47" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>86</v>
@@ -1835,8 +1911,8 @@
       <c r="A48" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="3">
-        <v>40100</v>
+      <c r="B48" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>88</v>
@@ -1849,8 +1925,8 @@
       <c r="A49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="3">
-        <v>40101</v>
+      <c r="B49" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>89</v>
@@ -1863,8 +1939,8 @@
       <c r="A50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="3">
-        <v>40200</v>
+      <c r="B50" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>90</v>
@@ -1961,8 +2037,8 @@
       <c r="A57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="1">
-        <v>20000</v>
+      <c r="B57" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>80</v>
@@ -1975,8 +2051,8 @@
       <c r="A58" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="1">
-        <v>20001</v>
+      <c r="B58" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>79</v>
@@ -2134,6 +2210,34 @@
       </c>
       <c r="D69" s="1" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42917791-D1F6-49D0-862F-1341ED73BE03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52200B9-4628-48CF-B8D2-4E9664DAF72F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="210">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,30 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트 보스 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 보스 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 보스 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test boss 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test boss 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test boss 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Note_50000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -759,14 +735,6 @@
   </si>
   <si>
     <t>던전 설명(잠김)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직은 무리야...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not yet!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -901,6 +869,22 @@
     <t>Skill Level Up!
 {0}
 {1} -&gt; {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime King</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"너무 성급한거 아니야?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Isn't that too hasty?"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1249,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1299,10 +1283,10 @@
         <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1313,7 +1297,7 @@
         <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>165</v>
@@ -1327,24 +1311,24 @@
         <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1391,16 +1375,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1422,13 +1406,13 @@
         <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1436,13 +1420,13 @@
         <v>136</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1450,27 +1434,27 @@
         <v>136</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,16 +1571,16 @@
     </row>
     <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -1677,7 +1661,7 @@
         <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>126</v>
@@ -1842,13 +1826,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1856,7 +1840,7 @@
         <v>83</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>84</v>
@@ -1870,7 +1854,7 @@
         <v>83</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>87</v>
@@ -1884,7 +1868,7 @@
         <v>83</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>85</v>
@@ -1898,7 +1882,7 @@
         <v>83</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>86</v>
@@ -1912,7 +1896,7 @@
         <v>83</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>88</v>
@@ -1926,7 +1910,7 @@
         <v>83</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>89</v>
@@ -1940,7 +1924,7 @@
         <v>83</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>90</v>
@@ -1996,7 +1980,7 @@
         <v>101</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>110</v>
@@ -2038,7 +2022,7 @@
         <v>78</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>80</v>
@@ -2052,7 +2036,7 @@
         <v>78</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>79</v>
@@ -2069,7 +2053,7 @@
         <v>99</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>100</v>
@@ -2189,13 +2173,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2203,41 +2187,41 @@
         <v>101</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52200B9-4628-48CF-B8D2-4E9664DAF72F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA899CF9-7BA2-45FA-AA81-922002CD452E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="226">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -885,6 +885,72 @@
   </si>
   <si>
     <t>"Isn't that too hasty?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message_Tutorial_Menu</t>
+  </si>
+  <si>
+    <t>Message_Tutorial_Collection</t>
+  </si>
+  <si>
+    <t>Message_Tutorial_SkillMode</t>
+  </si>
+  <si>
+    <t>Message_Tutorial_JourneyMode</t>
+  </si>
+  <si>
+    <t>Message_Tutorial_ItemMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임의 메인화면입니다.
+콜렉션에서 정비를 한 후 모험을 떠나보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 레벨, 경험치, 설명을 확인하고 장착할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험을 떠날 수 있습니다.
+모험은 순차적으로 진행됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터에게 장비를 장착하여 능력치를 끌어올릴 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is the main screen of the game.
+Go on an journey after maintenance in the collection.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can check and equip the skill level, exp and description.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can go on an journey.
+journeys are carried out sequentially.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The character can be fitted with equipment to increase its ability.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 선택된 캐릭터의 정보를 확인하고 스킬, 아이템을 장착/변경 할 수 있습니다.
+화살표를 눌러서 캐릭터를 변경할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can check the information of the currently selected character and equip/change the skill and item.
+You can change the character by pressing the arrow.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2222,6 +2288,76 @@
       </c>
       <c r="D71" s="1" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA899CF9-7BA2-45FA-AA81-922002CD452E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C532CA93-896B-4B51-AD1E-C6BC4C91E496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="230">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -951,6 +951,22 @@
   <si>
     <t>You can check the information of the currently selected character and equip/change the skill and item.
 You can change the character by pressing the arrow.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 레벨 {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Required level {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Lock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1297,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1999,32 +2015,32 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2032,27 +2048,27 @@
         <v>101</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2060,13 +2076,13 @@
         <v>101</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2074,111 +2090,111 @@
         <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="132" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2186,13 +2202,13 @@
         <v>35</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2200,13 +2216,13 @@
         <v>35</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2214,136 +2230,139 @@
         <v>35</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2351,18 +2370,29 @@
         <v>215</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D2" xr:uid="{DCEE4153-6D36-4D91-BAEC-2672325C070B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D68">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D77">
       <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C532CA93-896B-4B51-AD1E-C6BC4C91E496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E258B3F-B3E3-45DB-ADF2-1B4F7064A29D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="231">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -967,6 +967,25 @@
   </si>
   <si>
     <t>Skill_Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피는 모든 힘의 근원이다.
+그리고 심장이 뛰는 짧은 순간 인간은 초월적인 능력을 발휘한다.
+사람들은 이를 '임페리움'이라고 불렀다.
+'임페리움'을 연구하는 집단 'XXX'이 생겨났고, 'XXX'에 의해 인류는 생태계의 최상위포식자로 거듭났다.
+하지만 'XXX'는 인류를 생태계의 정점에 세우기 위해 더 많은 데이터가 필요했다.
+그들은 인류를 또 한번 진화시키기 위해 비밀리에 생체병기를 만들고 생태계에 방생하여 인간을 공격하게 했다.
+그로부터 10년이 지났다...
+.
+.
+.
+숲속은 적막만이 감돌았다.
+이제 이 숲에 남아있는 생명체는 얼마 없었다.
+얼마나 걸었을까.
+적막을 깨고 어디선가 귀여운 통통거리는 소리가 들렸다.
+소리는 점점 가까워지고 드디어 그 형체가 드러났다.
+"마침 따분하던 참이였어!"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1315,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1413,7 +1432,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
@@ -1421,7 +1440,7 @@
         <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>144</v>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E258B3F-B3E3-45DB-ADF2-1B4F7064A29D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FA750-8C4E-41A4-9014-0C12F2C2ECED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,11 +616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>싸늘하다...
-가슴에 비수가 날아와 꽂힌다...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description_50001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -986,6 +981,45 @@
 적막을 깨고 어디선가 귀여운 통통거리는 소리가 들렸다.
 소리는 점점 가까워지고 드디어 그 형체가 드러났다.
 "마침 따분하던 참이였어!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트
+테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1334,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1378,58 +1412,58 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
@@ -1440,10 +1474,10 @@
         <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1451,13 +1485,13 @@
         <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1465,27 +1499,27 @@
         <v>134</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1507,13 +1541,13 @@
         <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1521,13 +1555,13 @@
         <v>136</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1535,35 +1569,35 @@
         <v>136</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>50</v>
@@ -1574,30 +1608,30 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1672,16 +1706,16 @@
     </row>
     <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -1762,7 +1796,7 @@
         <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>126</v>
@@ -1927,13 +1961,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1941,7 +1975,7 @@
         <v>83</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>84</v>
@@ -1955,7 +1989,7 @@
         <v>83</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>87</v>
@@ -1969,7 +2003,7 @@
         <v>83</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>85</v>
@@ -1983,7 +2017,7 @@
         <v>83</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>86</v>
@@ -1997,7 +2031,7 @@
         <v>83</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>88</v>
@@ -2011,7 +2045,7 @@
         <v>83</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>89</v>
@@ -2025,7 +2059,7 @@
         <v>83</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>90</v>
@@ -2036,30 +2070,30 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2067,13 +2101,13 @@
         <v>101</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2123,7 +2157,7 @@
         <v>101</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>110</v>
@@ -2165,7 +2199,7 @@
         <v>78</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>80</v>
@@ -2179,7 +2213,7 @@
         <v>78</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>79</v>
@@ -2190,16 +2224,16 @@
     </row>
     <row r="62" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="132" x14ac:dyDescent="0.3">
@@ -2210,7 +2244,7 @@
         <v>99</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>100</v>
@@ -2330,83 +2364,83 @@
     </row>
     <row r="72" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/자작/BeatFighter/Sheets/StringTable.xlsx
+++ b/자작/BeatFighter/Sheets/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FA750-8C4E-41A4-9014-0C12F2C2ECED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE510F4-4A29-41CA-9F6E-28CC00AA89CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="239">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,23 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대검을 한 번 휘둘러 단일 대상에게 피해를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대검을 앞으로 길게 뻗어 휘두르며 단일 대상에게 피해를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대검을 아래에서 위로 휘둘러 단일 대상에게 추가 고정피해를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대검을 세 번 휘둘러 단일 대상에게 피해를 입힌다.
-세번째 공격은 모든 적에게 피해를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>단일 대상에게 폭발을 일으켜 피해를 입힌다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,10 +763,6 @@
   </si>
   <si>
     <t>Description_40004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단일 대상에게 강력한 미들킥을 찬다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1020,6 +999,59 @@
 테스트
 테스트
 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_SkillExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 경험치 : {0} / {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill Exp : {0} / {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_SkillCooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨다운 : {0}초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooldown : {0}s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 대상에게 강력한 미들킥을 가하여 {0}%의 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대검을 한 번 휘둘러 단일 대상에게 {0}%의 피해를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대검을 앞으로 길게 뻗어 휘두르며 단일 대상에게 {0}%의 피해를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대검을 아래에서 위로 휘둘러 단일 대상에게 {0}%+{1}의 피해를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대검을 세 번 휘둘러 단일 대상에게 {0}%x3의 피해를 입힌다.
+세번째 공격은 모든 적에게 피해를 입힌다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1366,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1398,206 +1430,206 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>50</v>
@@ -1608,30 +1640,30 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1706,16 +1738,16 @@
     </row>
     <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -1793,13 +1825,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1891,13 +1923,13 @@
         <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1961,13 +1993,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1975,7 +2007,7 @@
         <v>83</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>84</v>
@@ -1989,7 +2021,7 @@
         <v>83</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>87</v>
@@ -2003,7 +2035,7 @@
         <v>83</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>85</v>
@@ -2017,7 +2049,7 @@
         <v>83</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>86</v>
@@ -2031,7 +2063,7 @@
         <v>83</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>88</v>
@@ -2045,7 +2077,7 @@
         <v>83</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>89</v>
@@ -2059,7 +2091,7 @@
         <v>83</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>90</v>
@@ -2070,30 +2102,30 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2101,13 +2133,13 @@
         <v>101</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2118,13 +2150,13 @@
         <v>102</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>101</v>
       </c>
@@ -2132,13 +2164,13 @@
         <v>103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>101</v>
       </c>
@@ -2146,10 +2178,10 @@
         <v>104</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -2157,13 +2189,13 @@
         <v>101</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2174,10 +2206,10 @@
         <v>105</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2188,10 +2220,10 @@
         <v>106</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2199,7 +2231,7 @@
         <v>78</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>80</v>
@@ -2213,7 +2245,7 @@
         <v>78</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>79</v>
@@ -2224,16 +2256,16 @@
     </row>
     <row r="62" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="132" x14ac:dyDescent="0.3">
@@ -2244,7 +2276,7 @@
         <v>99</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>100</v>
@@ -2269,13 +2301,13 @@
         <v>35</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2283,13 +2315,13 @@
         <v>35</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2311,13 +2343,13 @@
         <v>35</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2339,108 +2371,136 @@
         <v>35</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="D73" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
